--- a/tests/advanced/randomized_tests/b16.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b16.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>0.0001763473264873028</v>
+        <v>0.0002229288220405579</v>
       </c>
       <c r="E2">
-        <v>0.03836070001125336</v>
+        <v>0.04792241798713803</v>
       </c>
       <c r="F2">
         <v>96</v>
       </c>
       <c r="G2">
-        <v>0.004207491874694824</v>
+        <v>0.004238322842866182</v>
       </c>
       <c r="H2">
-        <v>0.007127442397177219</v>
+        <v>0.008408657740801573</v>
       </c>
       <c r="I2">
-        <v>0.009454932063817978</v>
+        <v>0.01438153302296996</v>
       </c>
       <c r="J2">
-        <v>0.01227628206834197</v>
+        <v>0.01559349102899432</v>
       </c>
       <c r="K2">
-        <v>0.001369412522763014</v>
+        <v>0.00139350164681673</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>96</v>
       </c>
       <c r="D3">
-        <v>0.00242139445617795</v>
+        <v>0.002423597499728203</v>
       </c>
       <c r="E3">
-        <v>0.04043959500268102</v>
+        <v>0.04775964701548219</v>
       </c>
       <c r="F3">
         <v>96</v>
       </c>
       <c r="G3">
-        <v>0.003679016605019569</v>
+        <v>0.003841289319097996</v>
       </c>
       <c r="H3">
-        <v>0.008857908193022013</v>
+        <v>0.01006700610741973</v>
       </c>
       <c r="I3">
-        <v>0.00920002581551671</v>
+        <v>0.0127634909003973</v>
       </c>
       <c r="J3">
-        <v>0.01384996203705668</v>
+        <v>0.01622256869450212</v>
       </c>
       <c r="K3">
-        <v>0.001334395259618759</v>
+        <v>0.001281950157135725</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>0.004023259971290827</v>
+        <v>0.003336433786898851</v>
       </c>
       <c r="E4">
-        <v>0.06045203190296888</v>
+        <v>0.0581201552413404</v>
       </c>
       <c r="F4">
         <v>96</v>
       </c>
       <c r="G4">
-        <v>0.00531814293935895</v>
+        <v>0.004698055796325207</v>
       </c>
       <c r="H4">
-        <v>0.01231762347742915</v>
+        <v>0.01257986901327968</v>
       </c>
       <c r="I4">
-        <v>0.01379188615828753</v>
+        <v>0.01560318190604448</v>
       </c>
       <c r="J4">
-        <v>0.02213378250598907</v>
+        <v>0.01919363299384713</v>
       </c>
       <c r="K4">
-        <v>0.001796802971512079</v>
+        <v>0.001591862645000219</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>96</v>
       </c>
       <c r="D5">
-        <v>0.0003308206796646118</v>
+        <v>0.0002646297216415405</v>
       </c>
       <c r="E5">
-        <v>0.05498523684218526</v>
+        <v>0.04319082386791706</v>
       </c>
       <c r="F5">
         <v>96</v>
       </c>
       <c r="G5">
-        <v>0.005773663520812988</v>
+        <v>0.003749916329979897</v>
       </c>
       <c r="H5">
-        <v>0.009197408799082041</v>
+        <v>0.007721805013716221</v>
       </c>
       <c r="I5">
-        <v>0.01443371223285794</v>
+        <v>0.01352619146928191</v>
       </c>
       <c r="J5">
-        <v>0.01762201869860291</v>
+        <v>0.01351108774542809</v>
       </c>
       <c r="K5">
-        <v>0.001993888057768345</v>
+        <v>0.001244128681719303</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>361</v>
       </c>
       <c r="D6">
-        <v>0.006759940646588802</v>
+        <v>0.005630886182188988</v>
       </c>
       <c r="E6">
-        <v>0.3251589313149452</v>
+        <v>0.5136187081225216</v>
       </c>
       <c r="F6">
         <v>361</v>
       </c>
       <c r="G6">
-        <v>0.01292157592251897</v>
+        <v>0.01312649948522449</v>
       </c>
       <c r="H6">
-        <v>0.03285203408449888</v>
+        <v>0.03437632508575916</v>
       </c>
       <c r="I6">
-        <v>0.2149409377016127</v>
+        <v>0.4128670734353364</v>
       </c>
       <c r="J6">
-        <v>0.04439613595604897</v>
+        <v>0.03484869189560413</v>
       </c>
       <c r="K6">
-        <v>0.005941410083323717</v>
+        <v>0.005245338659733534</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>96</v>
       </c>
       <c r="D8">
-        <v>0.0001763473264873028</v>
+        <v>0.0002229288220405579</v>
       </c>
       <c r="E8">
-        <v>0.03836070001125336</v>
+        <v>0.04792241798713803</v>
       </c>
       <c r="F8">
         <v>96</v>
       </c>
       <c r="G8">
-        <v>0.004207491874694824</v>
+        <v>0.004238322842866182</v>
       </c>
       <c r="H8">
-        <v>0.007127442397177219</v>
+        <v>0.008408657740801573</v>
       </c>
       <c r="I8">
-        <v>0.009454932063817978</v>
+        <v>0.01438153302296996</v>
       </c>
       <c r="J8">
-        <v>0.01227628206834197</v>
+        <v>0.01559349102899432</v>
       </c>
       <c r="K8">
-        <v>0.001369412522763014</v>
+        <v>0.00139350164681673</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>96</v>
       </c>
       <c r="D9">
-        <v>0.00242139445617795</v>
+        <v>0.002423597499728203</v>
       </c>
       <c r="E9">
-        <v>0.04043959500268102</v>
+        <v>0.04775964701548219</v>
       </c>
       <c r="F9">
         <v>96</v>
       </c>
       <c r="G9">
-        <v>0.003679016605019569</v>
+        <v>0.003841289319097996</v>
       </c>
       <c r="H9">
-        <v>0.008857908193022013</v>
+        <v>0.01006700610741973</v>
       </c>
       <c r="I9">
-        <v>0.00920002581551671</v>
+        <v>0.0127634909003973</v>
       </c>
       <c r="J9">
-        <v>0.01384996203705668</v>
+        <v>0.01622256869450212</v>
       </c>
       <c r="K9">
-        <v>0.001334395259618759</v>
+        <v>0.001281950157135725</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>96</v>
       </c>
       <c r="D10">
-        <v>0.004023259971290827</v>
+        <v>0.003336433786898851</v>
       </c>
       <c r="E10">
-        <v>0.06045203190296888</v>
+        <v>0.0581201552413404</v>
       </c>
       <c r="F10">
         <v>96</v>
       </c>
       <c r="G10">
-        <v>0.00531814293935895</v>
+        <v>0.004698055796325207</v>
       </c>
       <c r="H10">
-        <v>0.01231762347742915</v>
+        <v>0.01257986901327968</v>
       </c>
       <c r="I10">
-        <v>0.01379188615828753</v>
+        <v>0.01560318190604448</v>
       </c>
       <c r="J10">
-        <v>0.02213378250598907</v>
+        <v>0.01919363299384713</v>
       </c>
       <c r="K10">
-        <v>0.001796802971512079</v>
+        <v>0.001591862645000219</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>96</v>
       </c>
       <c r="D11">
-        <v>0.0003308206796646118</v>
+        <v>0.0002646297216415405</v>
       </c>
       <c r="E11">
-        <v>0.05498523684218526</v>
+        <v>0.04319082386791706</v>
       </c>
       <c r="F11">
         <v>96</v>
       </c>
       <c r="G11">
-        <v>0.005773663520812988</v>
+        <v>0.003749916329979897</v>
       </c>
       <c r="H11">
-        <v>0.009197408799082041</v>
+        <v>0.007721805013716221</v>
       </c>
       <c r="I11">
-        <v>0.01443371223285794</v>
+        <v>0.01352619146928191</v>
       </c>
       <c r="J11">
-        <v>0.01762201869860291</v>
+        <v>0.01351108774542809</v>
       </c>
       <c r="K11">
-        <v>0.001993888057768345</v>
+        <v>0.001244128681719303</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>361</v>
       </c>
       <c r="D12">
-        <v>0.006759940646588802</v>
+        <v>0.005630886182188988</v>
       </c>
       <c r="E12">
-        <v>0.3251589313149452</v>
+        <v>0.5136187081225216</v>
       </c>
       <c r="F12">
         <v>361</v>
       </c>
       <c r="G12">
-        <v>0.01292157592251897</v>
+        <v>0.01312649948522449</v>
       </c>
       <c r="H12">
-        <v>0.03285203408449888</v>
+        <v>0.03437632508575916</v>
       </c>
       <c r="I12">
-        <v>0.2149409377016127</v>
+        <v>0.4128670734353364</v>
       </c>
       <c r="J12">
-        <v>0.04439613595604897</v>
+        <v>0.03484869189560413</v>
       </c>
       <c r="K12">
-        <v>0.005941410083323717</v>
+        <v>0.005245338659733534</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b16.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b16.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>138</v>
       </c>
       <c r="D2">
-        <v>138</v>
-      </c>
-      <c r="E2">
-        <v>138</v>
-      </c>
-      <c r="F2">
-        <v>138</v>
-      </c>
-      <c r="G2">
-        <v>138</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="D2">
-        <v>0.0002229288220405579</v>
+        <v>0.006619497202336788</v>
       </c>
       <c r="E2">
-        <v>0.04792241798713803</v>
+        <v>0.08969338797032833</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="G2">
-        <v>0.004238322842866182</v>
+        <v>0.007911944296211004</v>
       </c>
       <c r="H2">
-        <v>0.008408657740801573</v>
+        <v>0.01936772698536515</v>
       </c>
       <c r="I2">
-        <v>0.01438153302296996</v>
+        <v>0.0329667879268527</v>
       </c>
       <c r="J2">
-        <v>0.01559349102899432</v>
+        <v>0.01764346985146403</v>
       </c>
       <c r="K2">
-        <v>0.00139350164681673</v>
+        <v>0.004741615615785122</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>96</v>
-      </c>
-      <c r="D3">
-        <v>0.002423597499728203</v>
+        <v>1700</v>
       </c>
       <c r="E3">
-        <v>0.04775964701548219</v>
-      </c>
-      <c r="F3">
-        <v>96</v>
-      </c>
-      <c r="G3">
-        <v>0.003841289319097996</v>
-      </c>
-      <c r="H3">
-        <v>0.01006700610741973</v>
-      </c>
-      <c r="I3">
-        <v>0.0127634909003973</v>
-      </c>
-      <c r="J3">
-        <v>0.01622256869450212</v>
-      </c>
-      <c r="K3">
-        <v>0.001281950157135725</v>
+        <v>0.02747303945943713</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="D4">
-        <v>0.003336433786898851</v>
+        <v>0.006619497202336788</v>
       </c>
       <c r="E4">
-        <v>0.0581201552413404</v>
+        <v>0.08969338797032833</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="G4">
-        <v>0.004698055796325207</v>
+        <v>0.007911944296211004</v>
       </c>
       <c r="H4">
-        <v>0.01257986901327968</v>
+        <v>0.01936772698536515</v>
       </c>
       <c r="I4">
-        <v>0.01560318190604448</v>
+        <v>0.0329667879268527</v>
       </c>
       <c r="J4">
-        <v>0.01919363299384713</v>
+        <v>0.01764346985146403</v>
       </c>
       <c r="K4">
-        <v>0.001591862645000219</v>
+        <v>0.004741615615785122</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>96</v>
-      </c>
-      <c r="D5">
-        <v>0.0002646297216415405</v>
+        <v>1700</v>
       </c>
       <c r="E5">
-        <v>0.04319082386791706</v>
-      </c>
-      <c r="F5">
-        <v>96</v>
-      </c>
-      <c r="G5">
-        <v>0.003749916329979897</v>
-      </c>
-      <c r="H5">
-        <v>0.007721805013716221</v>
-      </c>
-      <c r="I5">
-        <v>0.01352619146928191</v>
-      </c>
-      <c r="J5">
-        <v>0.01351108774542809</v>
-      </c>
-      <c r="K5">
-        <v>0.001244128681719303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>361</v>
-      </c>
-      <c r="D6">
-        <v>0.005630886182188988</v>
-      </c>
-      <c r="E6">
-        <v>0.5136187081225216</v>
-      </c>
-      <c r="F6">
-        <v>361</v>
-      </c>
-      <c r="G6">
-        <v>0.01312649948522449</v>
-      </c>
-      <c r="H6">
-        <v>0.03437632508575916</v>
-      </c>
-      <c r="I6">
-        <v>0.4128670734353364</v>
-      </c>
-      <c r="J6">
-        <v>0.03484869189560413</v>
-      </c>
-      <c r="K6">
-        <v>0.005245338659733534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1700</v>
-      </c>
-      <c r="E7">
-        <v>0.02747303945943713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>0.0002229288220405579</v>
-      </c>
-      <c r="E8">
-        <v>0.04792241798713803</v>
-      </c>
-      <c r="F8">
-        <v>96</v>
-      </c>
-      <c r="G8">
-        <v>0.004238322842866182</v>
-      </c>
-      <c r="H8">
-        <v>0.008408657740801573</v>
-      </c>
-      <c r="I8">
-        <v>0.01438153302296996</v>
-      </c>
-      <c r="J8">
-        <v>0.01559349102899432</v>
-      </c>
-      <c r="K8">
-        <v>0.00139350164681673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>96</v>
-      </c>
-      <c r="D9">
-        <v>0.002423597499728203</v>
-      </c>
-      <c r="E9">
-        <v>0.04775964701548219</v>
-      </c>
-      <c r="F9">
-        <v>96</v>
-      </c>
-      <c r="G9">
-        <v>0.003841289319097996</v>
-      </c>
-      <c r="H9">
-        <v>0.01006700610741973</v>
-      </c>
-      <c r="I9">
-        <v>0.0127634909003973</v>
-      </c>
-      <c r="J9">
-        <v>0.01622256869450212</v>
-      </c>
-      <c r="K9">
-        <v>0.001281950157135725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>96</v>
-      </c>
-      <c r="D10">
-        <v>0.003336433786898851</v>
-      </c>
-      <c r="E10">
-        <v>0.0581201552413404</v>
-      </c>
-      <c r="F10">
-        <v>96</v>
-      </c>
-      <c r="G10">
-        <v>0.004698055796325207</v>
-      </c>
-      <c r="H10">
-        <v>0.01257986901327968</v>
-      </c>
-      <c r="I10">
-        <v>0.01560318190604448</v>
-      </c>
-      <c r="J10">
-        <v>0.01919363299384713</v>
-      </c>
-      <c r="K10">
-        <v>0.001591862645000219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>96</v>
-      </c>
-      <c r="D11">
-        <v>0.0002646297216415405</v>
-      </c>
-      <c r="E11">
-        <v>0.04319082386791706</v>
-      </c>
-      <c r="F11">
-        <v>96</v>
-      </c>
-      <c r="G11">
-        <v>0.003749916329979897</v>
-      </c>
-      <c r="H11">
-        <v>0.007721805013716221</v>
-      </c>
-      <c r="I11">
-        <v>0.01352619146928191</v>
-      </c>
-      <c r="J11">
-        <v>0.01351108774542809</v>
-      </c>
-      <c r="K11">
-        <v>0.001244128681719303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>361</v>
-      </c>
-      <c r="D12">
-        <v>0.005630886182188988</v>
-      </c>
-      <c r="E12">
-        <v>0.5136187081225216</v>
-      </c>
-      <c r="F12">
-        <v>361</v>
-      </c>
-      <c r="G12">
-        <v>0.01312649948522449</v>
-      </c>
-      <c r="H12">
-        <v>0.03437632508575916</v>
-      </c>
-      <c r="I12">
-        <v>0.4128670734353364</v>
-      </c>
-      <c r="J12">
-        <v>0.03484869189560413</v>
-      </c>
-      <c r="K12">
-        <v>0.005245338659733534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1700</v>
-      </c>
-      <c r="E13">
         <v>0.02747303945943713</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b16.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b16.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>138</v>
       </c>
       <c r="D2">
+        <v>138</v>
+      </c>
+      <c r="E2">
+        <v>138</v>
+      </c>
+      <c r="F2">
+        <v>138</v>
+      </c>
+      <c r="G2">
+        <v>138</v>
+      </c>
+      <c r="H2">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>138</v>
+      </c>
+      <c r="J2">
+        <v>138</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>0.006619497202336788</v>
+        <v>0.000472955871373415</v>
       </c>
       <c r="E2">
-        <v>0.08969338797032833</v>
+        <v>0.05411032261326909</v>
       </c>
       <c r="F2">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="G2">
-        <v>0.007911944296211004</v>
+        <v>0.006645538378506899</v>
       </c>
       <c r="H2">
-        <v>0.01936772698536515</v>
+        <v>0.009602305479347706</v>
       </c>
       <c r="I2">
-        <v>0.0329667879268527</v>
+        <v>0.0141756315715611</v>
       </c>
       <c r="J2">
-        <v>0.01764346985146403</v>
+        <v>0.0142054776661098</v>
       </c>
       <c r="K2">
-        <v>0.004741615615785122</v>
+        <v>0.003809329587966204</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1700</v>
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>0.01108135562390089</v>
       </c>
       <c r="E3">
-        <v>0.02747303945943713</v>
+        <v>0.1430470962077379</v>
+      </c>
+      <c r="F3">
+        <v>192</v>
+      </c>
+      <c r="G3">
+        <v>0.01285236654803157</v>
+      </c>
+      <c r="H3">
+        <v>0.03102811891585588</v>
+      </c>
+      <c r="I3">
+        <v>0.05109956953674555</v>
+      </c>
+      <c r="J3">
+        <v>0.02838737284764647</v>
+      </c>
+      <c r="K3">
+        <v>0.007619720418006182</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>0.006619497202336788</v>
+        <v>0.003993665333837271</v>
       </c>
       <c r="E4">
-        <v>0.08969338797032833</v>
+        <v>0.0648657726123929</v>
       </c>
       <c r="F4">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>0.007911944296211004</v>
+        <v>0.006945479195564985</v>
       </c>
       <c r="H4">
-        <v>0.01936772698536515</v>
+        <v>0.01380003895610571</v>
       </c>
       <c r="I4">
-        <v>0.0329667879268527</v>
+        <v>0.01574440626427531</v>
       </c>
       <c r="J4">
-        <v>0.01764346985146403</v>
+        <v>0.0188021776266396</v>
       </c>
       <c r="K4">
-        <v>0.004741615615785122</v>
+        <v>0.003904232755303383</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>0.0003466745838522911</v>
+      </c>
+      <c r="E5">
+        <v>0.05492909578606486</v>
+      </c>
+      <c r="F5">
+        <v>96</v>
+      </c>
+      <c r="G5">
+        <v>0.006579353474080563</v>
+      </c>
+      <c r="H5">
+        <v>0.009869392961263657</v>
+      </c>
+      <c r="I5">
+        <v>0.01477852510288358</v>
+      </c>
+      <c r="J5">
+        <v>0.01417732192203403</v>
+      </c>
+      <c r="K5">
+        <v>0.003765224479138851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>361</v>
+      </c>
+      <c r="D6">
+        <v>0.002217769157141447</v>
+      </c>
+      <c r="E6">
+        <v>0.3877544249407947</v>
+      </c>
+      <c r="F6">
+        <v>361</v>
+      </c>
+      <c r="G6">
+        <v>0.0197925940155983</v>
+      </c>
+      <c r="H6">
+        <v>0.03340345621109009</v>
+      </c>
+      <c r="I6">
+        <v>0.2823685184121132</v>
+      </c>
+      <c r="J6">
+        <v>0.02189017739146948</v>
+      </c>
+      <c r="K6">
+        <v>0.01250139810144901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1425</v>
+      </c>
+      <c r="D7">
+        <v>0.02932704985141754</v>
+      </c>
+      <c r="E7">
+        <v>1.326480593997985</v>
+      </c>
+      <c r="F7">
+        <v>1425</v>
+      </c>
+      <c r="G7">
+        <v>0.0662135062739253</v>
+      </c>
+      <c r="H7">
+        <v>0.1338240304030478</v>
+      </c>
+      <c r="I7">
+        <v>0.9494268554262817</v>
+      </c>
+      <c r="J7">
+        <v>0.07272024871781468</v>
+      </c>
+      <c r="K7">
+        <v>0.04299010522663593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>361</v>
+      </c>
+      <c r="D8">
+        <v>0.01120507903397083</v>
+      </c>
+      <c r="E8">
+        <v>0.4209071849472821</v>
+      </c>
+      <c r="F8">
+        <v>361</v>
+      </c>
+      <c r="G8">
+        <v>0.0192161169834435</v>
+      </c>
+      <c r="H8">
+        <v>0.04587552323937416</v>
+      </c>
+      <c r="I8">
+        <v>0.2902820836752653</v>
+      </c>
+      <c r="J8">
+        <v>0.0355776259675622</v>
+      </c>
+      <c r="K8">
+        <v>0.0124136321246624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>361</v>
+      </c>
+      <c r="D9">
+        <v>0.003137297928333282</v>
+      </c>
+      <c r="E9">
+        <v>0.4576127850450575</v>
+      </c>
+      <c r="F9">
+        <v>361</v>
+      </c>
+      <c r="G9">
+        <v>0.0219285860657692</v>
+      </c>
+      <c r="H9">
+        <v>0.04128229897469282</v>
+      </c>
+      <c r="I9">
+        <v>0.3362868684343994</v>
+      </c>
+      <c r="J9">
+        <v>0.02440842520445585</v>
+      </c>
+      <c r="K9">
+        <v>0.01381126092746854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>1700</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.02747303945943713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>0.000472955871373415</v>
+      </c>
+      <c r="E11">
+        <v>0.05411032261326909</v>
+      </c>
+      <c r="F11">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>0.006645538378506899</v>
+      </c>
+      <c r="H11">
+        <v>0.009602305479347706</v>
+      </c>
+      <c r="I11">
+        <v>0.0141756315715611</v>
+      </c>
+      <c r="J11">
+        <v>0.0142054776661098</v>
+      </c>
+      <c r="K11">
+        <v>0.003809329587966204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>192</v>
+      </c>
+      <c r="D12">
+        <v>0.01108135562390089</v>
+      </c>
+      <c r="E12">
+        <v>0.1430470962077379</v>
+      </c>
+      <c r="F12">
+        <v>192</v>
+      </c>
+      <c r="G12">
+        <v>0.01285236654803157</v>
+      </c>
+      <c r="H12">
+        <v>0.03102811891585588</v>
+      </c>
+      <c r="I12">
+        <v>0.05109956953674555</v>
+      </c>
+      <c r="J12">
+        <v>0.02838737284764647</v>
+      </c>
+      <c r="K12">
+        <v>0.007619720418006182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <v>0.003993665333837271</v>
+      </c>
+      <c r="E13">
+        <v>0.0648657726123929</v>
+      </c>
+      <c r="F13">
+        <v>96</v>
+      </c>
+      <c r="G13">
+        <v>0.006945479195564985</v>
+      </c>
+      <c r="H13">
+        <v>0.01380003895610571</v>
+      </c>
+      <c r="I13">
+        <v>0.01574440626427531</v>
+      </c>
+      <c r="J13">
+        <v>0.0188021776266396</v>
+      </c>
+      <c r="K13">
+        <v>0.003904232755303383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>0.0003466745838522911</v>
+      </c>
+      <c r="E14">
+        <v>0.05492909578606486</v>
+      </c>
+      <c r="F14">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>0.006579353474080563</v>
+      </c>
+      <c r="H14">
+        <v>0.009869392961263657</v>
+      </c>
+      <c r="I14">
+        <v>0.01477852510288358</v>
+      </c>
+      <c r="J14">
+        <v>0.01417732192203403</v>
+      </c>
+      <c r="K14">
+        <v>0.003765224479138851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>361</v>
+      </c>
+      <c r="D15">
+        <v>0.002217769157141447</v>
+      </c>
+      <c r="E15">
+        <v>0.3877544249407947</v>
+      </c>
+      <c r="F15">
+        <v>361</v>
+      </c>
+      <c r="G15">
+        <v>0.0197925940155983</v>
+      </c>
+      <c r="H15">
+        <v>0.03340345621109009</v>
+      </c>
+      <c r="I15">
+        <v>0.2823685184121132</v>
+      </c>
+      <c r="J15">
+        <v>0.02189017739146948</v>
+      </c>
+      <c r="K15">
+        <v>0.01250139810144901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1425</v>
+      </c>
+      <c r="D16">
+        <v>0.02932704985141754</v>
+      </c>
+      <c r="E16">
+        <v>1.326480593997985</v>
+      </c>
+      <c r="F16">
+        <v>1425</v>
+      </c>
+      <c r="G16">
+        <v>0.0662135062739253</v>
+      </c>
+      <c r="H16">
+        <v>0.1338240304030478</v>
+      </c>
+      <c r="I16">
+        <v>0.9494268554262817</v>
+      </c>
+      <c r="J16">
+        <v>0.07272024871781468</v>
+      </c>
+      <c r="K16">
+        <v>0.04299010522663593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>361</v>
+      </c>
+      <c r="D17">
+        <v>0.01120507903397083</v>
+      </c>
+      <c r="E17">
+        <v>0.4209071849472821</v>
+      </c>
+      <c r="F17">
+        <v>361</v>
+      </c>
+      <c r="G17">
+        <v>0.0192161169834435</v>
+      </c>
+      <c r="H17">
+        <v>0.04587552323937416</v>
+      </c>
+      <c r="I17">
+        <v>0.2902820836752653</v>
+      </c>
+      <c r="J17">
+        <v>0.0355776259675622</v>
+      </c>
+      <c r="K17">
+        <v>0.0124136321246624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>361</v>
+      </c>
+      <c r="D18">
+        <v>0.003137297928333282</v>
+      </c>
+      <c r="E18">
+        <v>0.4576127850450575</v>
+      </c>
+      <c r="F18">
+        <v>361</v>
+      </c>
+      <c r="G18">
+        <v>0.0219285860657692</v>
+      </c>
+      <c r="H18">
+        <v>0.04128229897469282</v>
+      </c>
+      <c r="I18">
+        <v>0.3362868684343994</v>
+      </c>
+      <c r="J18">
+        <v>0.02440842520445585</v>
+      </c>
+      <c r="K18">
+        <v>0.01381126092746854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>1700</v>
+      </c>
+      <c r="E19">
         <v>0.02747303945943713</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
